--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5916963333333333</v>
+        <v>0.1079986666666667</v>
       </c>
       <c r="H2">
-        <v>1.775089</v>
+        <v>0.323996</v>
       </c>
       <c r="I2">
-        <v>0.02270977341260246</v>
+        <v>0.004187739561209694</v>
       </c>
       <c r="J2">
-        <v>0.02270977341260246</v>
+        <v>0.004187739561209694</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>66.57376149729599</v>
+        <v>6.592412095191557</v>
       </c>
       <c r="R2">
-        <v>599.1638534756639</v>
+        <v>59.33170885672401</v>
       </c>
       <c r="S2">
-        <v>0.00743816155713964</v>
+        <v>0.0008558120936668625</v>
       </c>
       <c r="T2">
-        <v>0.007438161557139641</v>
+        <v>0.0008558120936668625</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5916963333333333</v>
+        <v>0.1079986666666667</v>
       </c>
       <c r="H3">
-        <v>1.775089</v>
+        <v>0.323996</v>
       </c>
       <c r="I3">
-        <v>0.02270977341260246</v>
+        <v>0.004187739561209694</v>
       </c>
       <c r="J3">
-        <v>0.02270977341260246</v>
+        <v>0.004187739561209694</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>62.90587971249133</v>
+        <v>11.48182057537867</v>
       </c>
       <c r="R3">
-        <v>566.152917412422</v>
+        <v>103.336385178408</v>
       </c>
       <c r="S3">
-        <v>0.007028356002004004</v>
+        <v>0.001490544092789538</v>
       </c>
       <c r="T3">
-        <v>0.007028356002004007</v>
+        <v>0.001490544092789538</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5916963333333333</v>
+        <v>0.1079986666666667</v>
       </c>
       <c r="H4">
-        <v>1.775089</v>
+        <v>0.323996</v>
       </c>
       <c r="I4">
-        <v>0.02270977341260246</v>
+        <v>0.004187739561209694</v>
       </c>
       <c r="J4">
-        <v>0.02270977341260246</v>
+        <v>0.004187739561209694</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>73.77959525799712</v>
+        <v>14.18437309012089</v>
       </c>
       <c r="R4">
-        <v>664.0163573219741</v>
+        <v>127.659357811088</v>
       </c>
       <c r="S4">
-        <v>0.008243255853458814</v>
+        <v>0.001841383374753294</v>
       </c>
       <c r="T4">
-        <v>0.008243255853458815</v>
+        <v>0.001841383374753294</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>74.947</v>
       </c>
       <c r="I5">
-        <v>0.9588417188965267</v>
+        <v>0.9687110856121154</v>
       </c>
       <c r="J5">
-        <v>0.9588417188965268</v>
+        <v>0.9687110856121155</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>2810.847063408</v>
+        <v>1524.961756621445</v>
       </c>
       <c r="R5">
-        <v>25297.623570672</v>
+        <v>13724.655809593</v>
       </c>
       <c r="S5">
-        <v>0.3140506725144174</v>
+        <v>0.1979671013964689</v>
       </c>
       <c r="T5">
-        <v>0.3140506725144174</v>
+        <v>0.1979671013964689</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>74.947</v>
       </c>
       <c r="I6">
-        <v>0.9588417188965267</v>
+        <v>0.9687110856121154</v>
       </c>
       <c r="J6">
-        <v>0.9588417188965268</v>
+        <v>0.9687110856121155</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>2655.983427767333</v>
@@ -818,10 +818,10 @@
         <v>23903.850849906</v>
       </c>
       <c r="S6">
-        <v>0.2967480488483643</v>
+        <v>0.3447937879550905</v>
       </c>
       <c r="T6">
-        <v>0.2967480488483644</v>
+        <v>0.3447937879550906</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>74.947</v>
       </c>
       <c r="I7">
-        <v>0.9588417188965267</v>
+        <v>0.9687110856121154</v>
       </c>
       <c r="J7">
-        <v>0.9588417188965268</v>
+        <v>0.9687110856121155</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>3115.088497422445</v>
+        <v>3281.139921435111</v>
       </c>
       <c r="R7">
-        <v>28035.796476802</v>
+        <v>29530.259292916</v>
       </c>
       <c r="S7">
-        <v>0.3480429975337449</v>
+        <v>0.425950196260556</v>
       </c>
       <c r="T7">
-        <v>0.348042997533745</v>
+        <v>0.4259501962605561</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4806703333333333</v>
+        <v>0.6989190000000001</v>
       </c>
       <c r="H8">
-        <v>1.442011</v>
+        <v>2.096757</v>
       </c>
       <c r="I8">
-        <v>0.01844850769087087</v>
+        <v>0.02710117482667488</v>
       </c>
       <c r="J8">
-        <v>0.01844850769087087</v>
+        <v>0.02710117482667489</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>54.08184963710399</v>
+        <v>42.66313845688701</v>
       </c>
       <c r="R8">
-        <v>486.7366467339359</v>
+        <v>383.9682461119831</v>
       </c>
       <c r="S8">
-        <v>0.006042463665299311</v>
+        <v>0.005538432567317651</v>
       </c>
       <c r="T8">
-        <v>0.006042463665299313</v>
+        <v>0.005538432567317652</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4806703333333333</v>
+        <v>0.6989190000000001</v>
       </c>
       <c r="H9">
-        <v>1.442011</v>
+        <v>2.096757</v>
       </c>
       <c r="I9">
-        <v>0.01844850769087087</v>
+        <v>0.02710117482667488</v>
       </c>
       <c r="J9">
-        <v>0.01844850769087087</v>
+        <v>0.02710117482667489</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>51.10220981037533</v>
+        <v>74.305200262254</v>
       </c>
       <c r="R9">
-        <v>459.919888293378</v>
+        <v>668.7468023602861</v>
       </c>
       <c r="S9">
-        <v>0.005709554093797998</v>
+        <v>0.009646133780556282</v>
       </c>
       <c r="T9">
-        <v>0.005709554093798001</v>
+        <v>0.009646133780556286</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4806703333333333</v>
+        <v>0.6989190000000001</v>
       </c>
       <c r="H10">
-        <v>1.442011</v>
+        <v>2.096757</v>
       </c>
       <c r="I10">
-        <v>0.01844850769087087</v>
+        <v>0.02710117482667488</v>
       </c>
       <c r="J10">
-        <v>0.01844850769087087</v>
+        <v>0.02710117482667489</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>59.93557953295845</v>
+        <v>91.794909712844</v>
       </c>
       <c r="R10">
-        <v>539.4202157966261</v>
+        <v>826.1541874155961</v>
       </c>
       <c r="S10">
-        <v>0.006696489931773559</v>
+        <v>0.01191660847880095</v>
       </c>
       <c r="T10">
-        <v>0.006696489931773562</v>
+        <v>0.01191660847880095</v>
       </c>
     </row>
   </sheetData>
